--- a/data/outputs/OR_elsevier/35.xlsx
+++ b/data/outputs/OR_elsevier/35.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS33"/>
+  <dimension ref="A1:BU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84938419057</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84922665210</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84938415378</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1586,6 +1614,12 @@
           <t>2-s2.0-84944045368</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1801,6 +1835,12 @@
           <t>2-s2.0-84930872306</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2012,6 +2052,12 @@
           <t>2-s2.0-84939997691</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2230,6 +2276,12 @@
         <is>
           <t>2-s2.0-84948717609</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2438,6 +2490,12 @@
           <t>2-s2.0-84944076961</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2657,6 +2715,12 @@
           <t>2-s2.0-84944149660</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2871,6 +2935,12 @@
         <is>
           <t>2-s2.0-84938423789</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3079,6 +3149,12 @@
           <t>2-s2.0-84930868490</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3298,6 +3374,12 @@
           <t>2-s2.0-84940005815</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3517,6 +3599,12 @@
           <t>2-s2.0-84948717424</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3732,6 +3820,12 @@
           <t>2-s2.0-84944176730</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3947,6 +4041,12 @@
           <t>2-s2.0-84938416596</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4170,6 +4270,12 @@
           <t>2-s2.0-84930867585</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4384,6 +4490,12 @@
         <is>
           <t>2-s2.0-84939957990</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4592,6 +4704,12 @@
           <t>2-s2.0-84922834569</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4799,6 +4917,12 @@
           <t>2-s2.0-84925481595</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5018,6 +5142,12 @@
           <t>2-s2.0-84925511018</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5241,6 +5371,12 @@
           <t>2-s2.0-84948709633</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5460,6 +5596,12 @@
           <t>2-s2.0-84944169369</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5679,6 +5821,12 @@
           <t>2-s2.0-84944145901</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5901,6 +6049,12 @@
         <is>
           <t>2-s2.0-84938416572</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -6109,6 +6263,12 @@
           <t>2-s2.0-84930869690</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6332,6 +6492,12 @@
           <t>2-s2.0-84940003809</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6546,6 +6712,12 @@
         <is>
           <t>2-s2.0-84948719140</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6754,6 +6926,12 @@
           <t>2-s2.0-84938422773</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6965,6 +7143,12 @@
           <t>2-s2.0-84930872833</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7183,6 +7367,12 @@
         <is>
           <t>2-s2.0-84939954475</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7383,6 +7573,12 @@
           <t>2-s2.0-84922358896</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7598,6 +7794,12 @@
           <t>2-s2.0-84925521692</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
